--- a/biology/Zoologie/Hemiscylliidae/Hemiscylliidae.xlsx
+++ b/biology/Zoologie/Hemiscylliidae/Hemiscylliidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hemiscyllidés ou requins-chabots constituent une famille de requins orectolobiformes.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parthénogenèse
-Le 10 février 2016, la presse britannique a rapporté qu'un requin bambou du Sea Life Centre de Great Yarmouth était enceinte de deux œufs fécondés. On sait que le requin n'avait pas été en contact avec d'autres requins bambous depuis 2013. Bien que la parthénogenèse soit observée chez un petit nombre d'espèces, il s'agit d'une occurrence très rare chez cette espèce[1].
+          <t>Parthénogenèse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 10 février 2016, la presse britannique a rapporté qu'un requin bambou du Sea Life Centre de Great Yarmouth était enceinte de deux œufs fécondés. On sait que le requin n'avait pas été en contact avec d'autres requins bambous depuis 2013. Bien que la parthénogenèse soit observée chez un petit nombre d'espèces, il s'agit d'une occurrence très rare chez cette espèce.
 </t>
         </is>
       </c>
@@ -543,9 +560,11 @@
           <t>Liste sous-taxons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (6 janvier 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (6 janvier 2014) :
 genre Chiloscyllium J. P. Müller &amp; Henle, 1837
 Chiloscyllium arabicum Gubanov, 1980
 Chiloscyllium burmensis Dingerkus &amp; DeFino, 1983
